--- a/mlScores.xlsx
+++ b/mlScores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/novakradovic/Git/Stroke_predictor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53D3F387-E275-8440-98EF-207E3DDC29F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E259D29B-9E41-7644-BF1B-BED9D10A8370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{4FC063DE-4AFD-864E-B065-F2DB31B62E3B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Model</t>
   </si>
@@ -48,9 +48,6 @@
     <t>f1</t>
   </si>
   <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
     <t>LogisticRegression</t>
   </si>
   <si>
@@ -76,6 +73,24 @@
   </si>
   <si>
     <t>XGBClassifier</t>
+  </si>
+  <si>
+    <t>Balanced Accuracy</t>
+  </si>
+  <si>
+    <t>Average Recall</t>
+  </si>
+  <si>
+    <t>RUSBoostClassifier</t>
+  </si>
+  <si>
+    <t>SMOTEENN Scaling</t>
+  </si>
+  <si>
+    <t>Undersampling</t>
+  </si>
+  <si>
+    <t>Ensenmble</t>
   </si>
 </sst>
 </file>
@@ -427,173 +442,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862731D8-2D7A-9746-A301-02C152814353}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>0.09</v>
+      </c>
+      <c r="C3">
+        <v>0.63</v>
+      </c>
+      <c r="D3">
+        <v>0.85</v>
+      </c>
+      <c r="E3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.73560000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>0.08</v>
-      </c>
-      <c r="C2">
-        <v>0.62</v>
-      </c>
-      <c r="D2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E2">
-        <v>0.73560000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>0.06</v>
+      </c>
+      <c r="C4">
+        <v>0.53</v>
+      </c>
+      <c r="E4">
+        <v>0.11</v>
+      </c>
+      <c r="F4">
+        <v>0.68259999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>0.06</v>
-      </c>
-      <c r="C3">
-        <v>0.53</v>
-      </c>
-      <c r="D3">
-        <v>0.11</v>
-      </c>
-      <c r="E3">
-        <v>0.68259999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>0.05</v>
+      </c>
+      <c r="C5">
+        <v>0.47</v>
+      </c>
+      <c r="E5">
+        <v>0.09</v>
+      </c>
+      <c r="F5">
+        <v>0.64710000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0.05</v>
-      </c>
-      <c r="C4">
-        <v>0.47</v>
-      </c>
-      <c r="D4">
-        <v>0.09</v>
-      </c>
-      <c r="E4">
-        <v>0.64710000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D5">
-        <v>0.13</v>
-      </c>
-      <c r="E5">
-        <v>0.71609999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
       </c>
       <c r="B6">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C6">
-        <v>0.61</v>
-      </c>
-      <c r="D6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E6">
         <v>0.13</v>
       </c>
-      <c r="E6">
-        <v>0.72389999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>0.71609999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C7">
+        <v>0.61</v>
+      </c>
+      <c r="E7">
+        <v>0.13</v>
+      </c>
+      <c r="F7">
+        <v>0.72389999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D7">
+      <c r="E8">
         <v>0.12</v>
       </c>
-      <c r="E7">
+      <c r="F8">
         <v>0.69740000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>0.06</v>
-      </c>
-      <c r="C8">
-        <v>0.53</v>
-      </c>
-      <c r="D8">
-        <v>0.11</v>
-      </c>
-      <c r="E8">
-        <v>0.67810000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0.06</v>
       </c>
       <c r="C9">
-        <v>0.77</v>
-      </c>
-      <c r="D9">
+        <v>0.53</v>
+      </c>
+      <c r="E9">
         <v>0.11</v>
       </c>
-      <c r="E9">
-        <v>0.75570000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>0.67810000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0.08</v>
@@ -601,11 +617,261 @@
       <c r="C10">
         <v>0.6</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.7268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>0.06</v>
+      </c>
+      <c r="C14">
+        <v>0.84</v>
+      </c>
+      <c r="D14">
+        <v>0.66</v>
+      </c>
+      <c r="E14">
+        <v>0.09</v>
+      </c>
+      <c r="F14">
+        <v>0.74809999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.06</v>
+      </c>
+      <c r="C15">
+        <v>0.78</v>
+      </c>
+      <c r="D15">
+        <v>0.75</v>
+      </c>
+      <c r="E15">
+        <v>0.12</v>
+      </c>
+      <c r="F15">
+        <v>0.76590000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>0.05</v>
+      </c>
+      <c r="C19">
+        <v>0.74</v>
+      </c>
+      <c r="D19">
+        <v>0.82</v>
+      </c>
+      <c r="E19">
+        <v>0.1</v>
+      </c>
+      <c r="F19">
+        <v>0.73229999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>0.05</v>
+      </c>
+      <c r="C20">
+        <v>0.76</v>
+      </c>
+      <c r="D20">
+        <v>0.81</v>
+      </c>
+      <c r="E20">
+        <v>0.1</v>
+      </c>
+      <c r="F20">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>0.11</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.9</v>
+      </c>
+      <c r="E21">
+        <v>0.2</v>
+      </c>
+      <c r="F21">
+        <v>0.91239999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>0.05</v>
+      </c>
+      <c r="C22">
+        <v>0.63</v>
+      </c>
+      <c r="D22">
+        <v>0.83</v>
+      </c>
+      <c r="E22">
+        <v>0.09</v>
+      </c>
+      <c r="F22">
+        <v>0.68469999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>0.05</v>
+      </c>
+      <c r="C23">
+        <v>0.88</v>
+      </c>
+      <c r="D23">
+        <v>0.76</v>
+      </c>
+      <c r="E23">
+        <v>0.09</v>
+      </c>
+      <c r="F23">
+        <v>0.76019999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>0.06</v>
+      </c>
+      <c r="C24">
+        <v>0.77</v>
+      </c>
+      <c r="D24">
+        <v>0.82</v>
+      </c>
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="F24">
+        <v>0.74590000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>0.05</v>
+      </c>
+      <c r="C25">
+        <v>0.73</v>
+      </c>
+      <c r="D25">
+        <v>0.8</v>
+      </c>
+      <c r="E25">
+        <v>0.09</v>
+      </c>
+      <c r="F25">
+        <v>0.70930000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>0.06</v>
+      </c>
+      <c r="C26">
+        <v>0.77</v>
+      </c>
+      <c r="D26">
+        <v>0.74</v>
+      </c>
+      <c r="E26">
+        <v>0.83</v>
+      </c>
+      <c r="F26">
+        <v>0.75619999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/mlScores.xlsx
+++ b/mlScores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/novakradovic/Git/Stroke_predictor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E259D29B-9E41-7644-BF1B-BED9D10A8370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE09C9A-CB5E-9F49-A4D0-66F380C7F761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{4FC063DE-4AFD-864E-B065-F2DB31B62E3B}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{4FC063DE-4AFD-864E-B065-F2DB31B62E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,6 +143,51 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF048E49-371B-7C47-8FE9-AC270504A0A0}" name="Table1" displayName="Table1" ref="A2:F10" totalsRowShown="0">
+  <autoFilter ref="A2:F10" xr:uid="{EF048E49-371B-7C47-8FE9-AC270504A0A0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B46E6538-28F8-4848-ADF0-64571C54D3EA}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{2F61F9CA-9844-4B45-B842-29986B51480F}" name="Precision"/>
+    <tableColumn id="3" xr3:uid="{E763394B-0439-3A4E-ABCB-F1A1FBF83365}" name="Recall"/>
+    <tableColumn id="4" xr3:uid="{5B40FC29-4F88-E846-8174-4287494EEA68}" name="Average Recall"/>
+    <tableColumn id="5" xr3:uid="{03ECEDBF-2DDF-A74C-8937-A1015250C0C3}" name="f1"/>
+    <tableColumn id="6" xr3:uid="{5742B752-7575-9143-8F9C-B6789BE78EA0}" name="Balanced Accuracy"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1E6F4EE9-5257-0B46-877A-4A863D195F07}" name="Table2" displayName="Table2" ref="A13:F15" totalsRowShown="0">
+  <autoFilter ref="A13:F15" xr:uid="{1E6F4EE9-5257-0B46-877A-4A863D195F07}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{C64E01DB-91C4-EB43-9E2C-79D7013424CF}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{2D5D2B37-7633-BA4B-824D-2F13FB48A2D9}" name="Precision"/>
+    <tableColumn id="3" xr3:uid="{991D1A0A-F76E-204D-8D68-FFF25692B7C0}" name="Recall"/>
+    <tableColumn id="4" xr3:uid="{1B3ECA8F-3DD4-3448-848B-E8F5F9FBCE14}" name="Average Recall"/>
+    <tableColumn id="5" xr3:uid="{019E066D-BB39-3C4F-9F9E-3844504F688B}" name="f1"/>
+    <tableColumn id="6" xr3:uid="{93F1947F-DCE6-6242-AC5A-6096EFE19BBA}" name="Balanced Accuracy"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8CDF1F4A-2255-A049-A9C5-720B0123D7DD}" name="Table3" displayName="Table3" ref="A18:F26" totalsRowShown="0">
+  <autoFilter ref="A18:F26" xr:uid="{8CDF1F4A-2255-A049-A9C5-720B0123D7DD}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{05E19B25-9367-4C4D-A32D-05E65B4D3E40}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{17099056-FD8B-2544-83D7-AA6691DD4484}" name="Precision"/>
+    <tableColumn id="3" xr3:uid="{DE0EF3FE-8211-004D-AE2B-774149A1CCE2}" name="Recall"/>
+    <tableColumn id="4" xr3:uid="{7E6CC6A2-A14E-7240-B072-94DBE36DF827}" name="Average Recall"/>
+    <tableColumn id="5" xr3:uid="{CC647D51-AEBB-8743-BD79-1F9B61C303FB}" name="f1"/>
+    <tableColumn id="6" xr3:uid="{E1811248-0F87-194B-A658-6B62A5C54084}" name="Balanced Accuracy"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,7 +490,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,7 +498,7 @@
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
     <col min="7" max="7" width="26.1640625" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" customWidth="1"/>
@@ -515,6 +560,9 @@
       <c r="C4">
         <v>0.53</v>
       </c>
+      <c r="D4">
+        <v>0.83</v>
+      </c>
       <c r="E4">
         <v>0.11</v>
       </c>
@@ -532,6 +580,9 @@
       <c r="C5">
         <v>0.47</v>
       </c>
+      <c r="D5">
+        <v>0.81</v>
+      </c>
       <c r="E5">
         <v>0.09</v>
       </c>
@@ -549,6 +600,9 @@
       <c r="C6">
         <v>0.57999999999999996</v>
       </c>
+      <c r="D6">
+        <v>0.84</v>
+      </c>
       <c r="E6">
         <v>0.13</v>
       </c>
@@ -566,6 +620,9 @@
       <c r="C7">
         <v>0.61</v>
       </c>
+      <c r="D7">
+        <v>0.84</v>
+      </c>
       <c r="E7">
         <v>0.13</v>
       </c>
@@ -583,6 +640,9 @@
       <c r="C8">
         <v>0.56000000000000005</v>
       </c>
+      <c r="D8">
+        <v>0.84</v>
+      </c>
       <c r="E8">
         <v>0.12</v>
       </c>
@@ -600,6 +660,9 @@
       <c r="C9">
         <v>0.53</v>
       </c>
+      <c r="D9">
+        <v>0.53</v>
+      </c>
       <c r="E9">
         <v>0.11</v>
       </c>
@@ -617,6 +680,9 @@
       <c r="C10">
         <v>0.6</v>
       </c>
+      <c r="D10">
+        <v>0.79</v>
+      </c>
       <c r="E10">
         <v>0.14000000000000001</v>
       </c>
@@ -876,5 +942,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>